--- a/data/lab01/2024-10-21_13-10-40/Latawiec_Malik_Krok.xlsx
+++ b/data/lab01/2024-10-21_13-10-40/Latawiec_Malik_Krok.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACA78B0-46EC-4E2F-A043-7C060367392F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAB9912-A896-494B-AE70-61354F8176F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -1105,11 +1105,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1138,23 +1150,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1268,10 +1268,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Wykres!$A$3:$A$98</c:f>
+              <c:f>Wykres!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1311,264 +1311,15 @@
                 <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Wykres!$B$3:$B$98</c:f>
+              <c:f>Wykres!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>123.607</c:v>
                 </c:pt>
@@ -1607,255 +1358,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.383876</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.23724799999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14662700000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.0620800000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.60067E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.4614100000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.1392700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.3221399999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.1712699999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.05012E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.1211500000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.9289800000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.19217E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.3680299999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.5536900000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.81434E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.73936E-4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.0749800000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.6437499999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.1060599999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.5376900000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.5683800000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.6931000000000004E-6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.9906599999999998E-6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.7024299999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.2882299999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.4141999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.7402599999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.4017799999999996E-7</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.3384799999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.0633E-7</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.2751899999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.8810899999999998E-8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.8707799999999998E-8</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.01031E-8</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.86047E-8</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.14984E-8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.1063699999999997E-9</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.39198E-9</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.7143900000000002E-9</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.67759E-9</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.0368100000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.4078100000000004E-10</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.9602499999999998E-10</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.4475700000000002E-10</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.5126799999999999E-10</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9.3488700000000004E-11</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.7779199999999997E-11</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.5709500000000001E-11</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.2069699999999999E-11</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.36398E-11</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8.4298699999999995E-12</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5.20995E-12</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.2199199999999999E-12</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.99002E-12</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.2299E-12</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>7.6012099999999997E-13</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.6978100000000002E-13</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.9034E-13</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7943999999999999E-13</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.109E-13</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6.8540099999999998E-14</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.2360100000000003E-14</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.6179999999999999E-14</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.6180100000000001E-14</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>9.99986E-15</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6.18026E-15</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.8196099999999998E-15</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.3606499999999998E-15</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.4589599999999999E-15</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9.0168700000000001E-16</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.5727399999999995E-16</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.4441300000000001E-16</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1286E-16</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.3155299999999999E-16</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.1307100000000001E-17</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.0246000000000002E-17</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.1061099999999999E-17</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.91848E-17</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.1876300000000001E-17</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7.3085100000000006E-18</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.5678199999999999E-18</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.7406899999999999E-18</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.8271300000000001E-18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16172,7 +15674,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16183,14 +15685,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="105" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="92" t="s">
@@ -16199,7 +15701,7 @@
       <c r="F1" s="93"/>
       <c r="G1" s="93"/>
       <c r="H1" s="100"/>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="101" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="89"/>
@@ -16207,14 +15709,14 @@
       <c r="L1" s="91"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="114"/>
+      <c r="A2" s="103"/>
       <c r="B2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="117"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="14" t="s">
         <v>10</v>
       </c>
@@ -16241,13 +15743,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="106">
+      <c r="A3" s="110">
         <v>1.5</v>
       </c>
-      <c r="B3" s="109">
+      <c r="B3" s="113">
         <v>15.905851010000006</v>
       </c>
-      <c r="C3" s="103">
+      <c r="C3" s="107">
         <v>1586</v>
       </c>
       <c r="D3" s="29" t="s">
@@ -16279,11 +15781,11 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="110">
+      <c r="A4" s="111"/>
+      <c r="B4" s="114">
         <v>15.905851010000006</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="108">
         <v>1586</v>
       </c>
       <c r="D4" s="30" t="s">
@@ -16315,26 +15817,26 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="108"/>
-      <c r="B5" s="111">
+      <c r="A5" s="112"/>
+      <c r="B5" s="115">
         <v>15.905851010000006</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5" s="109">
         <v>1586</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="117"/>
       <c r="G5" s="67">
         <v>0</v>
       </c>
       <c r="H5" s="82">
         <v>0</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
       <c r="K5" s="67">
         <v>0</v>
       </c>
@@ -16343,13 +15845,13 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="106">
+      <c r="A6" s="110">
         <v>2.8</v>
       </c>
-      <c r="B6" s="109">
+      <c r="B6" s="113">
         <v>42.035906159999996</v>
       </c>
-      <c r="C6" s="103">
+      <c r="C6" s="107">
         <v>744</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -16381,11 +15883,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110">
+      <c r="A7" s="111"/>
+      <c r="B7" s="114">
         <v>42.035906159999996</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="108">
         <v>744</v>
       </c>
       <c r="D7" s="30" t="s">
@@ -16417,26 +15919,26 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="108"/>
-      <c r="B8" s="111">
+      <c r="A8" s="112"/>
+      <c r="B8" s="115">
         <v>42.035906159999996</v>
       </c>
-      <c r="C8" s="105">
+      <c r="C8" s="109">
         <v>744</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
       <c r="G8" s="65">
         <v>0</v>
       </c>
       <c r="H8" s="83">
         <v>0</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
       <c r="K8" s="65">
         <v>0</v>
       </c>
@@ -16477,13 +15979,13 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="107">
+      <c r="A10" s="111">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B10" s="110">
+      <c r="B10" s="114">
         <v>65.701499530000007</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="108">
         <v>575</v>
       </c>
       <c r="D10" s="30" t="s">
@@ -16515,26 +16017,26 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
-      <c r="B11" s="111">
+      <c r="A11" s="112"/>
+      <c r="B11" s="115">
         <v>65.701499530000007</v>
       </c>
-      <c r="C11" s="105">
+      <c r="C11" s="109">
         <v>575</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="102"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="65">
         <v>0</v>
       </c>
       <c r="H11" s="83">
         <v>0</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="117"/>
       <c r="K11" s="1">
         <v>10</v>
       </c>
@@ -16544,11 +16046,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C10:C11"/>
@@ -16558,12 +16061,11 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16574,8 +16076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="79" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A3" zoomScale="79" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17439,7 +16941,7 @@
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="100"/>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="101" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="89"/>
@@ -17499,7 +17001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G2003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A959" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K977" sqref="K977"/>
     </sheetView>
   </sheetViews>
